--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.780000000000001</v>
+        <v>-5.889099999999998</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.0596</v>
+        <v>-11.8376</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.47629999999999</v>
+        <v>-14.2959</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.55669999999999</v>
+        <v>-13.69369999999998</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9901</v>
+        <v>13.0719</v>
       </c>
     </row>
     <row r="22">
